--- a/Dota.xlsx
+++ b/Dota.xlsx
@@ -14,6 +14,71 @@
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+  <si>
+    <t>Логин</t>
+  </si>
+  <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>Пароль</t>
+  </si>
+  <si>
+    <t>Номер Телефона</t>
+  </si>
+  <si>
+    <t>Почта</t>
+  </si>
+  <si>
+    <t>Дата рождения</t>
+  </si>
+  <si>
+    <t>Возраст</t>
+  </si>
+  <si>
+    <t>Зп</t>
+  </si>
+  <si>
+    <t>Должность</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Герой</t>
+  </si>
+  <si>
+    <t>Слот</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Vest of the Bloodroot Guard</t>
+  </si>
+  <si>
+    <t>Phantom assassin</t>
+  </si>
+  <si>
+    <t>Жилет</t>
+  </si>
+  <si>
+    <t>Pauldrons of the Battleranger</t>
+  </si>
+  <si>
+    <t>Wind reandger</t>
+  </si>
+  <si>
+    <t>Плечи</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -344,36 +409,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="28.7109375" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="28.7109375" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>141</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>554</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>5.75</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -384,7 +549,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="28.7109375" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
